--- a/Documentação/tarefas.xlsx
+++ b/Documentação/tarefas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAPR\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="390"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Módulo</t>
   </si>
@@ -71,34 +71,55 @@
     <t>x</t>
   </si>
   <si>
-    <t>Desenho Jogo do Galo</t>
-  </si>
-  <si>
-    <t>Ligação entre o C++ e o PROLOG</t>
-  </si>
-  <si>
-    <t>Logica do Jogo do Galo</t>
-  </si>
-  <si>
-    <t>Logica enforcado</t>
-  </si>
-  <si>
-    <t>Criação de paginas base</t>
-  </si>
-  <si>
-    <t>Criação da base de dados</t>
-  </si>
-  <si>
-    <t>Documentação</t>
-  </si>
-  <si>
-    <t>Levantamento de requisitos</t>
-  </si>
-  <si>
-    <t>Elaboração de Deployment view</t>
-  </si>
-  <si>
-    <t>Elaboração de modelo de dados</t>
+    <t>Desenho do grafo</t>
+  </si>
+  <si>
+    <t>Controlo da camera</t>
+  </si>
+  <si>
+    <t>Minijogo da forca</t>
+  </si>
+  <si>
+    <t>Minijogo labirinto</t>
+  </si>
+  <si>
+    <t>Logica da forca</t>
+  </si>
+  <si>
+    <t>Logica do labirinto</t>
+  </si>
+  <si>
+    <t>Reconfiguração do projecto relacionado com o site</t>
+  </si>
+  <si>
+    <t>Fazer interface de login</t>
+  </si>
+  <si>
+    <t>Registo de user</t>
+  </si>
+  <si>
+    <t>Alteração da informação pessoal</t>
+  </si>
+  <si>
+    <t>Configuração inicial Nagios (uvm054)</t>
+  </si>
+  <si>
+    <t>Instalação NSClient++ (wvm054)</t>
+  </si>
+  <si>
+    <t>Adicionar amigo</t>
+  </si>
+  <si>
+    <t>Espaço livre no disco (wvm054)</t>
+  </si>
+  <si>
+    <t>Taxa utilização CPU (wvm054)</t>
+  </si>
+  <si>
+    <t>Numero de utilizadores registados(wvm054)</t>
+  </si>
+  <si>
+    <t>Trafego interface de rede (wvm054)</t>
   </si>
 </sst>
 </file>
@@ -128,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,96 +192,44 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,371 +531,432 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="A21:A26"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documentação/tarefas.xlsx
+++ b/Documentação/tarefas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Módulo</t>
   </si>
@@ -53,9 +53,6 @@
     <t>João Moreira</t>
   </si>
   <si>
-    <t>Visuaçização</t>
-  </si>
-  <si>
     <t>IA</t>
   </si>
   <si>
@@ -65,61 +62,112 @@
     <t>Monitorização</t>
   </si>
   <si>
-    <t>Modelo</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Desenho do grafo</t>
-  </si>
-  <si>
-    <t>Controlo da camera</t>
-  </si>
-  <si>
-    <t>Minijogo da forca</t>
-  </si>
-  <si>
-    <t>Minijogo labirinto</t>
-  </si>
-  <si>
-    <t>Logica da forca</t>
-  </si>
-  <si>
-    <t>Logica do labirinto</t>
-  </si>
-  <si>
-    <t>Reconfiguração do projecto relacionado com o site</t>
-  </si>
-  <si>
-    <t>Fazer interface de login</t>
-  </si>
-  <si>
-    <t>Registo de user</t>
-  </si>
-  <si>
-    <t>Alteração da informação pessoal</t>
-  </si>
-  <si>
-    <t>Configuração inicial Nagios (uvm054)</t>
-  </si>
-  <si>
-    <t>Instalação NSClient++ (wvm054)</t>
-  </si>
-  <si>
-    <t>Adicionar amigo</t>
-  </si>
-  <si>
-    <t>Espaço livre no disco (wvm054)</t>
-  </si>
-  <si>
-    <t>Taxa utilização CPU (wvm054)</t>
-  </si>
-  <si>
-    <t>Numero de utilizadores registados(wvm054)</t>
-  </si>
-  <si>
-    <t>Trafego interface de rede (wvm054)</t>
+    <t>Sugestao de amigos</t>
+  </si>
+  <si>
+    <t>Monitorizar downloads</t>
+  </si>
+  <si>
+    <t>Monitorizar numero de utilizadores</t>
+  </si>
+  <si>
+    <t>Monitorizar webservice - verificar o funcionamento do webservice</t>
+  </si>
+  <si>
+    <t>Monitorizar acesso http</t>
+  </si>
+  <si>
+    <t>Determinar caminho mais curto entre users</t>
+  </si>
+  <si>
+    <t>Determinar caminho mais forte</t>
+  </si>
+  <si>
+    <t>Obter amigos que tenham em comum X tags</t>
+  </si>
+  <si>
+    <t>Conforme o utilizador subir de nível (adicionar amigos)</t>
+  </si>
+  <si>
+    <t>Opção para pesquisa do caminho mais forte (força de ligação) e iluminação</t>
+  </si>
+  <si>
+    <t>Opção para pesquisa do caminho mais curto entre dois utilizadores</t>
+  </si>
+  <si>
+    <t>Iluminar de uma certa forma o caminho para onde está orientada a objetiva da câmera</t>
+  </si>
+  <si>
+    <t>Mostrar apenas até aos amigos dos amigos no inicio de programa</t>
+  </si>
+  <si>
+    <t>Selecionar nós e mostrar as opções para aquele nó(Adicionar amigo, editar força de ligação, editar tag de ligação)</t>
+  </si>
+  <si>
+    <t>Detetar colisões</t>
+  </si>
+  <si>
+    <t>Detetar declives</t>
+  </si>
+  <si>
+    <t>Controlar a câmera</t>
+  </si>
+  <si>
+    <t>Criação do grafo de rede dinamicamente (modo normal)</t>
+  </si>
+  <si>
+    <t>Menu de opções com MODO NORMAL e MODO AVANÇADO</t>
+  </si>
+  <si>
+    <t>Tag cloud das suas tags das relações</t>
+  </si>
+  <si>
+    <t>Tag cloud das suas tags de utilizador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanho da sua rede social (até ao 3º nível) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugestões de amigos </t>
+  </si>
+  <si>
+    <t>Tag cloud das tags de todas as relações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag cloud das tags de todos os utilizadores </t>
+  </si>
+  <si>
+    <t>Dimensão da rede (número de utilizadores)</t>
+  </si>
+  <si>
+    <t>Leadboard top 10 em amigos + mostrar o utilizador atual no fim caso esteja fora do top 10 ou no caso de se encontrar entre o top 10 usar um realce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leadboard em relação à força de ligação </t>
+  </si>
+  <si>
+    <t>Download do jogo</t>
+  </si>
+  <si>
+    <t>Adicionar tag's (interesses, gostos, etc)</t>
+  </si>
+  <si>
+    <t>Adicionar amigos</t>
+  </si>
+  <si>
+    <t>Visualização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinar tamanho da rede de um user (até ao 3º nível) </t>
+  </si>
+  <si>
+    <t>webservice monitorização</t>
+  </si>
+  <si>
+    <t>webservice forca</t>
   </si>
 </sst>
 </file>
@@ -135,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -192,11 +246,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,29 +302,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,18 +666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="50.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -532,21 +687,21 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -569,396 +724,568 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
+      <c r="B23" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
+      <c r="B24" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
+      <c r="B25" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
+      <c r="B26" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A35:A39"/>
     <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/tarefas.xlsx
+++ b/Documentação/tarefas.xlsx
@@ -183,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -291,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,78 +324,108 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,14 +710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -687,21 +729,21 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -724,330 +766,330 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="27" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="27" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="27" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="27" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="27" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="27" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="27" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="27" t="s">
+      <c r="C17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" s="32" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="E23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1059,129 +1101,129 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10" t="s">
+    <row r="29" spans="1:8" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10" t="s">
+      <c r="C29" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10" t="s">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+    </row>
+    <row r="32" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+    </row>
+    <row r="33" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="19" t="s">
+      <c r="C33" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="32" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="10" t="s">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="2"/>
@@ -1194,8 +1236,8 @@
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="2"/>
@@ -1208,18 +1250,18 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1231,7 +1273,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="21"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1243,7 +1285,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1255,7 +1297,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1267,7 +1309,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>

--- a/Documentação/tarefas.xlsx
+++ b/Documentação/tarefas.xlsx
@@ -210,7 +210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,6 +368,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -391,33 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,14 +730,14 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -766,7 +766,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -782,7 +782,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
@@ -869,20 +869,20 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
@@ -894,7 +894,7 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="12"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -918,7 +918,7 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -934,7 +934,7 @@
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="39" t="s">
         <v>18</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="20" t="s">
         <v>19</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
@@ -987,38 +987,38 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" s="32" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:8" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="33" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="34"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
@@ -1045,50 +1045,50 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="33" t="s">
+    <row r="25" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="34"/>
-    </row>
-    <row r="26" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="33" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="33" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="C27" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
@@ -1101,142 +1101,142 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="33" t="s">
+    <row r="29" spans="1:8" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="33" t="s">
+      <c r="C29" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="33" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="33" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="35" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="1:10" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="37" t="s">
+      <c r="C33" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:10" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="32" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="24" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:10" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="33" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" s="24" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="7" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" s="41" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="2"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="7" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="12"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>

--- a/Documentação/tarefas.xlsx
+++ b/Documentação/tarefas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAPR\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Projects\easySoft\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Módulo</t>
   </si>
@@ -168,14 +168,31 @@
   </si>
   <si>
     <t>webservice forca</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>webservice distribuicao de dados</t>
+  </si>
+  <si>
+    <t>cliente de login e launcher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -303,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +412,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -419,13 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J44"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,14 +750,14 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -766,7 +786,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -782,7 +802,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
@@ -794,7 +814,7 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
@@ -806,7 +826,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
@@ -818,7 +838,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
@@ -830,7 +850,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
@@ -844,7 +864,7 @@
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -858,7 +878,7 @@
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
@@ -869,20 +889,24 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
@@ -894,31 +918,35 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -933,22 +961,22 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39" t="s">
+    <row r="17" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="C17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="20" t="s">
         <v>19</v>
       </c>
@@ -960,7 +988,7 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
@@ -974,7 +1002,7 @@
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
@@ -988,7 +1016,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -1004,7 +1032,7 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="25" t="s">
         <v>33</v>
       </c>
@@ -1018,7 +1046,7 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1060,7 @@
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1074,7 @@
       <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
@@ -1060,7 +1088,7 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="25" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1102,7 @@
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="25" t="s">
         <v>38</v>
       </c>
@@ -1088,7 +1116,7 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
@@ -1102,7 +1130,7 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="25" t="s">
         <v>39</v>
       </c>
@@ -1116,7 +1144,7 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="25" t="s">
         <v>41</v>
       </c>
@@ -1130,7 +1158,7 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="25" t="s">
         <v>42</v>
       </c>
@@ -1138,13 +1166,13 @@
       <c r="D31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="26"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="25" t="s">
         <v>43</v>
       </c>
@@ -1158,120 +1186,124 @@
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>12</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:10" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="29" t="s">
+      <c r="G33" s="28"/>
+      <c r="H33" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="24" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="24" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" s="24" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="25" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" s="24" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="1:10" s="41" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="39" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="33" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="14"/>
       <c r="C41" s="5"/>
@@ -1308,7 +1340,7 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="14"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1319,13 +1351,25 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A34"/>
+    <mergeCell ref="A21:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
